--- a/tests/SMP2v3 workflow tracker.xlsx
+++ b/tests/SMP2v3 workflow tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sararey/Documents/cruk_reporting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFBA4F15-CB94-864C-9A83-F0D2470989C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EDB8FD4-B012-4742-96F2-F3811CC6CD3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="1760" windowWidth="42440" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12040" yWindow="6380" windowWidth="37660" windowHeight="20900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New database incoming" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="108">
   <si>
     <t>Source Clinical Hub</t>
   </si>
@@ -361,6 +361,21 @@
   </si>
   <si>
     <t>9 – Barts &amp; Brighton</t>
+  </si>
+  <si>
+    <t>YY480</t>
+  </si>
+  <si>
+    <t>4 - Lung</t>
+  </si>
+  <si>
+    <t>19M9</t>
+  </si>
+  <si>
+    <t>19M89</t>
+  </si>
+  <si>
+    <t>AP</t>
   </si>
 </sst>
 </file>
@@ -2014,7 +2029,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2750,49 +2765,88 @@
       <c r="AO9" s="34"/>
       <c r="AP9" s="34"/>
     </row>
-    <row r="10" spans="1:42" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="40"/>
-      <c r="K10"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="28"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10" s="116"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10" s="8"/>
+    <row r="10" spans="1:42" s="10" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="str">
+        <f t="shared" ref="A10" si="8">CONCATENATE(B10,"-",C10,"-",D10,"-",E10)</f>
+        <v>YY480-10-n-AP</v>
+      </c>
+      <c r="B10" s="122" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="122">
+        <v>10</v>
+      </c>
+      <c r="D10" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="122" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="122"/>
+      <c r="G10" s="233" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="233" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="234">
+        <v>43765</v>
+      </c>
+      <c r="K10" s="122">
+        <v>22</v>
+      </c>
+      <c r="L10" s="235">
+        <v>43770</v>
+      </c>
+      <c r="M10" s="236" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="237">
+        <f>IF(L10&lt;&gt;"",IF(R10&lt;&gt;"",IF(R10="Yes",WORKDAY(L10,10),WORKDAY(L10,20)),CONCATENATE("If QC pass, due date will be ",TEXT(WORKDAY(R10,20),"dd/mm/yyyy"))),"")</f>
+        <v>43798</v>
+      </c>
+      <c r="O10" s="122" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="241">
+        <v>10.73</v>
+      </c>
+      <c r="R10" s="125" t="str">
+        <f t="shared" ref="R10" si="9">IF(Q10&lt;4, "Yes", "No")</f>
+        <v>No</v>
+      </c>
+      <c r="S10" s="122" t="s">
+        <v>106</v>
+      </c>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
       <c r="W10" s="116"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-      <c r="AE10"/>
-      <c r="AF10"/>
-      <c r="AG10"/>
-      <c r="AH10"/>
-      <c r="AI10"/>
-      <c r="AJ10"/>
-      <c r="AK10"/>
-      <c r="AL10"/>
-      <c r="AM10"/>
-      <c r="AN10"/>
-      <c r="AO10"/>
-      <c r="AP10"/>
+      <c r="X10" s="235">
+        <v>43777</v>
+      </c>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="34"/>
     </row>
     <row r="11" spans="1:42" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="52"/>
@@ -6049,7 +6103,7 @@
     <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W95:W180 W74:W93 R74:R93 R95:R96 R98:R180 R20:R36 R2:R11 W2:W11" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W95:W180 W74:W93 R74:R93 R95:R96 R98:R180 R20:R36 W2:W11 R2:R11" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O46:O48 M95:M96 M98:M180 M20:M45 M2:M11" xr:uid="{00000000-0002-0000-0000-000001000000}">
@@ -6058,7 +6112,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I74:I93 I98:I180 I95:I96 I6" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$J$22:$J$30</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H74:H93 H98:H180 H95:H96 H6:H9" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H74:H93 H98:H180 H95:H96 H6:H10" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$H$23:$H$32</formula1>
     </dataValidation>
   </dataValidations>
@@ -13718,7 +13772,7 @@
       <c r="S2" s="42"/>
       <c r="T2" s="1">
         <f t="shared" ref="T2" ca="1" si="0">IF(S2&lt;&gt;(""),NETWORKDAYS(E2,S2-1),NETWORKDAYS(E2,TODAY()-1))</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V2" s="73" t="str">
         <f>'New database incoming'!P2</f>
@@ -13786,7 +13840,7 @@
       <c r="S3" s="42"/>
       <c r="T3" s="1">
         <f ca="1">IF(S3&lt;&gt;(""),NETWORKDAYS(E3,S3-1),NETWORKDAYS(E3,TODAY()-1))</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V3" s="73">
         <f>'New database incoming'!P3</f>
@@ -13854,7 +13908,7 @@
       <c r="S4" s="42"/>
       <c r="T4" s="1">
         <f ca="1">IF(S4&lt;&gt;(""),NETWORKDAYS(E4,S4-1),NETWORKDAYS(E4,TODAY()-1))</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V4" s="73">
         <f>'New database incoming'!P4</f>
@@ -13926,7 +13980,7 @@
       <c r="S5" s="42"/>
       <c r="T5" s="1">
         <f ca="1">IF(S5&lt;&gt;(""),NETWORKDAYS(E5,S5-1),NETWORKDAYS(E5,TODAY()-1))</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U5" s="5"/>
       <c r="V5" s="73" t="str">
@@ -14000,7 +14054,7 @@
       <c r="S6" s="42"/>
       <c r="T6" s="1">
         <f ca="1">IF(S6&lt;&gt;(""),NETWORKDAYS(E6,S6-1),NETWORKDAYS(E6,TODAY()-1))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U6" s="5"/>
       <c r="V6" s="73">
@@ -14073,8 +14127,8 @@
       </c>
       <c r="S7" s="42"/>
       <c r="T7" s="1">
-        <f t="shared" ref="T7:T8" ca="1" si="1">IF(S7&lt;&gt;(""),NETWORKDAYS(E7,S7-1),NETWORKDAYS(E7,TODAY()-1))</f>
-        <v>6</v>
+        <f t="shared" ref="T7" ca="1" si="1">IF(S7&lt;&gt;(""),NETWORKDAYS(E7,S7-1),NETWORKDAYS(E7,TODAY()-1))</f>
+        <v>7</v>
       </c>
       <c r="U7" s="5"/>
       <c r="V7" s="73">
@@ -14172,8 +14226,8 @@
       </c>
       <c r="S9" s="42"/>
       <c r="T9" s="1">
-        <f t="shared" ref="T8:T9" ca="1" si="2">IF(S9&lt;&gt;(""),NETWORKDAYS(E9,S9-1),NETWORKDAYS(E9,TODAY()-1))</f>
-        <v>6</v>
+        <f t="shared" ref="T9" ca="1" si="2">IF(S9&lt;&gt;(""),NETWORKDAYS(E9,S9-1),NETWORKDAYS(E9,TODAY()-1))</f>
+        <v>7</v>
       </c>
       <c r="U9" s="5"/>
       <c r="V9" s="73">
@@ -14337,7 +14391,7 @@
       <c r="S74" s="42"/>
       <c r="T74" s="1">
         <f t="shared" ref="T74:T92" ca="1" si="3">IF(S74&lt;&gt;(""),NETWORKDAYS(E74,S74-1),NETWORKDAYS(E74,TODAY()-1))</f>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="V74" s="73"/>
     </row>
@@ -14404,7 +14458,7 @@
       <c r="S75" s="42"/>
       <c r="T75" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U75" s="5"/>
       <c r="V75" s="73"/>
@@ -14472,7 +14526,7 @@
       <c r="S76" s="42"/>
       <c r="T76" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U76" s="5"/>
       <c r="V76" s="73"/>
@@ -14540,7 +14594,7 @@
       <c r="S77" s="42"/>
       <c r="T77" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U77" s="5"/>
       <c r="V77" s="73"/>
@@ -14608,7 +14662,7 @@
       <c r="S78" s="42"/>
       <c r="T78" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U78" s="5"/>
       <c r="V78" s="73"/>
@@ -14676,7 +14730,7 @@
       <c r="S79" s="42"/>
       <c r="T79" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U79" s="5"/>
       <c r="V79" s="73"/>
@@ -14744,7 +14798,7 @@
       <c r="S80" s="42"/>
       <c r="T80" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U80" s="5"/>
       <c r="V80" s="73"/>
@@ -14812,7 +14866,7 @@
       <c r="S81" s="42"/>
       <c r="T81" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U81" s="5"/>
       <c r="V81" s="73"/>
@@ -14880,7 +14934,7 @@
       <c r="S82" s="42"/>
       <c r="T82" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U82" s="5"/>
       <c r="V82" s="73"/>
@@ -14948,7 +15002,7 @@
       <c r="S83" s="42"/>
       <c r="T83" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U83" s="5"/>
       <c r="V83" s="73"/>
@@ -15016,7 +15070,7 @@
       <c r="S84" s="42"/>
       <c r="T84" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U84" s="5"/>
       <c r="V84" s="73"/>
@@ -15084,7 +15138,7 @@
       <c r="S85" s="42"/>
       <c r="T85" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U85" s="5"/>
       <c r="V85" s="73"/>
@@ -15152,7 +15206,7 @@
       <c r="S86" s="42"/>
       <c r="T86" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U86" s="5"/>
       <c r="V86" s="73"/>
@@ -15220,7 +15274,7 @@
       <c r="S87" s="42"/>
       <c r="T87" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U87" s="5"/>
       <c r="V87" s="73"/>
@@ -15288,7 +15342,7 @@
       <c r="S88" s="42"/>
       <c r="T88" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U88" s="5"/>
       <c r="V88" s="73"/>
@@ -15356,7 +15410,7 @@
       <c r="S89" s="42"/>
       <c r="T89" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U89" s="5"/>
       <c r="V89" s="73"/>
@@ -15424,7 +15478,7 @@
       <c r="S90" s="42"/>
       <c r="T90" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U90" s="5"/>
       <c r="V90" s="73"/>
@@ -15492,7 +15546,7 @@
       <c r="S91" s="42"/>
       <c r="T91" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U91" s="5"/>
       <c r="V91" s="73"/>
@@ -15560,7 +15614,7 @@
       <c r="S92" s="42"/>
       <c r="T92" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U92" s="5"/>
       <c r="V92" s="73"/>
@@ -15628,7 +15682,7 @@
       <c r="S93" s="42"/>
       <c r="T93" s="1">
         <f t="shared" ref="T93" ca="1" si="4">IF(S93&lt;&gt;(""),NETWORKDAYS(E93,S93-1),NETWORKDAYS(E93,TODAY()-1))</f>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U93" s="5"/>
       <c r="V93" s="73"/>
@@ -15728,7 +15782,7 @@
       <c r="S95" s="42"/>
       <c r="T95" s="1">
         <f t="shared" ref="T95:T107" ca="1" si="5">IF(S95&lt;&gt;(""),NETWORKDAYS(E95,S95-1),NETWORKDAYS(E95,TODAY()-1))</f>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U95" s="5"/>
       <c r="V95" s="73"/>
@@ -15796,7 +15850,7 @@
       <c r="S96" s="42"/>
       <c r="T96" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U96" s="5"/>
       <c r="V96" s="73"/>
@@ -15888,7 +15942,7 @@
       <c r="S98" s="42"/>
       <c r="T98" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U98" s="5"/>
       <c r="V98" s="73"/>
@@ -15956,7 +16010,7 @@
       <c r="S99" s="42"/>
       <c r="T99" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U99" s="5"/>
       <c r="V99" s="73"/>
@@ -16024,7 +16078,7 @@
       <c r="S100" s="42"/>
       <c r="T100" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U100" s="5"/>
       <c r="V100" s="73"/>
@@ -16092,7 +16146,7 @@
       <c r="S101" s="42"/>
       <c r="T101" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U101" s="5"/>
       <c r="V101" s="73"/>
@@ -16160,7 +16214,7 @@
       <c r="S102" s="42"/>
       <c r="T102" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U102" s="5"/>
       <c r="V102" s="73"/>
@@ -16228,7 +16282,7 @@
       <c r="S103" s="42"/>
       <c r="T103" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U103" s="5"/>
       <c r="V103" s="73"/>
@@ -16296,7 +16350,7 @@
       <c r="S104" s="42"/>
       <c r="T104" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U104" s="5"/>
       <c r="V104" s="73"/>
@@ -16364,7 +16418,7 @@
       <c r="S105" s="42"/>
       <c r="T105" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U105" s="5"/>
       <c r="V105" s="73"/>
@@ -16432,7 +16486,7 @@
       <c r="S106" s="42"/>
       <c r="T106" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U106" s="5"/>
       <c r="V106" s="73"/>
@@ -16500,7 +16554,7 @@
       <c r="S107" s="42"/>
       <c r="T107" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U107" s="5"/>
       <c r="V107" s="73"/>
@@ -16568,7 +16622,7 @@
       <c r="S108" s="42"/>
       <c r="T108" s="1">
         <f t="shared" ref="T108:T150" ca="1" si="6">IF(S108&lt;&gt;(""),NETWORKDAYS(E108,S108-1),NETWORKDAYS(E108,TODAY()-1))</f>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U108" s="5"/>
       <c r="V108" s="73"/>
@@ -16636,7 +16690,7 @@
       <c r="S109" s="42"/>
       <c r="T109" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U109" s="5"/>
       <c r="V109" s="73"/>
@@ -16704,7 +16758,7 @@
       <c r="S110" s="42"/>
       <c r="T110" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U110" s="5"/>
       <c r="V110" s="73"/>
@@ -16772,7 +16826,7 @@
       <c r="S111" s="42"/>
       <c r="T111" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U111" s="5"/>
       <c r="V111" s="73"/>
@@ -16840,7 +16894,7 @@
       <c r="S112" s="42"/>
       <c r="T112" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U112" s="5"/>
       <c r="V112" s="73"/>
@@ -16908,7 +16962,7 @@
       <c r="S113" s="42"/>
       <c r="T113" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U113" s="5"/>
       <c r="V113" s="73"/>
@@ -16976,7 +17030,7 @@
       <c r="S114" s="42"/>
       <c r="T114" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U114" s="5"/>
       <c r="V114" s="73"/>
@@ -17044,7 +17098,7 @@
       <c r="S115" s="42"/>
       <c r="T115" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U115" s="5"/>
       <c r="V115" s="73"/>
@@ -17112,7 +17166,7 @@
       <c r="S116" s="42"/>
       <c r="T116" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U116" s="5"/>
       <c r="V116" s="73"/>
@@ -17180,7 +17234,7 @@
       <c r="S117" s="42"/>
       <c r="T117" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U117" s="5"/>
       <c r="V117" s="73"/>
@@ -17248,7 +17302,7 @@
       <c r="S118" s="42"/>
       <c r="T118" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U118" s="5"/>
       <c r="V118" s="73"/>
@@ -17316,7 +17370,7 @@
       <c r="S119" s="42"/>
       <c r="T119" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U119" s="5"/>
       <c r="V119" s="73"/>
@@ -17384,7 +17438,7 @@
       <c r="S120" s="42"/>
       <c r="T120" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U120" s="5"/>
       <c r="V120" s="73"/>
@@ -17452,7 +17506,7 @@
       <c r="S121" s="42"/>
       <c r="T121" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U121" s="5"/>
       <c r="V121" s="73"/>
@@ -17520,7 +17574,7 @@
       <c r="S122" s="42"/>
       <c r="T122" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U122" s="5"/>
       <c r="V122" s="73"/>
@@ -17588,7 +17642,7 @@
       <c r="S123" s="42"/>
       <c r="T123" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U123" s="5"/>
       <c r="V123" s="73"/>
@@ -17656,7 +17710,7 @@
       <c r="S124" s="42"/>
       <c r="T124" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U124" s="5"/>
       <c r="V124" s="73"/>
@@ -17724,7 +17778,7 @@
       <c r="S125" s="42"/>
       <c r="T125" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U125" s="5"/>
       <c r="V125" s="73"/>
@@ -17792,7 +17846,7 @@
       <c r="S126" s="42"/>
       <c r="T126" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U126" s="5"/>
       <c r="V126" s="73"/>
@@ -17860,7 +17914,7 @@
       <c r="S127" s="42"/>
       <c r="T127" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U127" s="5"/>
       <c r="V127" s="73"/>
@@ -17928,7 +17982,7 @@
       <c r="S128" s="42"/>
       <c r="T128" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U128" s="5"/>
       <c r="V128" s="73"/>
@@ -17996,7 +18050,7 @@
       <c r="S129" s="42"/>
       <c r="T129" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U129" s="5"/>
       <c r="V129" s="73"/>
@@ -18064,7 +18118,7 @@
       <c r="S130" s="42"/>
       <c r="T130" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U130" s="5"/>
       <c r="V130" s="73"/>
@@ -18132,7 +18186,7 @@
       <c r="S131" s="42"/>
       <c r="T131" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U131" s="5"/>
       <c r="V131" s="73"/>
@@ -18200,7 +18254,7 @@
       <c r="S132" s="42"/>
       <c r="T132" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U132" s="5"/>
       <c r="V132" s="73"/>
@@ -18268,7 +18322,7 @@
       <c r="S133" s="42"/>
       <c r="T133" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U133" s="5"/>
       <c r="V133" s="73"/>
@@ -18336,7 +18390,7 @@
       <c r="S134" s="42"/>
       <c r="T134" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U134" s="5"/>
       <c r="V134" s="73"/>
@@ -18404,7 +18458,7 @@
       <c r="S135" s="42"/>
       <c r="T135" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U135" s="5"/>
       <c r="V135" s="73"/>
@@ -18472,7 +18526,7 @@
       <c r="S136" s="42"/>
       <c r="T136" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U136" s="5"/>
       <c r="V136" s="73"/>
@@ -18540,7 +18594,7 @@
       <c r="S137" s="42"/>
       <c r="T137" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U137" s="5"/>
       <c r="V137" s="73"/>
@@ -18608,7 +18662,7 @@
       <c r="S138" s="42"/>
       <c r="T138" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U138" s="5"/>
       <c r="V138" s="73"/>
@@ -18676,7 +18730,7 @@
       <c r="S139" s="42"/>
       <c r="T139" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U139" s="5"/>
       <c r="V139" s="73"/>
@@ -18744,7 +18798,7 @@
       <c r="S140" s="42"/>
       <c r="T140" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U140" s="5"/>
       <c r="V140" s="73"/>
@@ -18812,7 +18866,7 @@
       <c r="S141" s="42"/>
       <c r="T141" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U141" s="5"/>
       <c r="V141" s="73"/>
@@ -18880,7 +18934,7 @@
       <c r="S142" s="42"/>
       <c r="T142" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U142" s="5"/>
       <c r="V142" s="73"/>
@@ -18948,7 +19002,7 @@
       <c r="S143" s="42"/>
       <c r="T143" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U143" s="5"/>
       <c r="V143" s="73"/>
@@ -19016,7 +19070,7 @@
       <c r="S144" s="42"/>
       <c r="T144" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U144" s="5"/>
       <c r="V144" s="73"/>
@@ -19084,7 +19138,7 @@
       <c r="S145" s="42"/>
       <c r="T145" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U145" s="5"/>
       <c r="V145" s="73"/>
@@ -19152,7 +19206,7 @@
       <c r="S146" s="42"/>
       <c r="T146" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U146" s="5"/>
       <c r="V146" s="73"/>
@@ -19220,7 +19274,7 @@
       <c r="S147" s="42"/>
       <c r="T147" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U147" s="5"/>
       <c r="V147" s="73"/>
@@ -19288,7 +19342,7 @@
       <c r="S148" s="42"/>
       <c r="T148" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U148" s="5"/>
       <c r="V148" s="73"/>
@@ -19356,7 +19410,7 @@
       <c r="S149" s="42"/>
       <c r="T149" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U149" s="5"/>
       <c r="V149" s="73"/>
@@ -19424,7 +19478,7 @@
       <c r="S150" s="42"/>
       <c r="T150" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31269</v>
+        <v>31270</v>
       </c>
       <c r="U150" s="5"/>
       <c r="V150" s="73"/>

--- a/tests/SMP2v3 workflow tracker.xlsx
+++ b/tests/SMP2v3 workflow tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sararey/Documents/cruk_reporting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EDB8FD4-B012-4742-96F2-F3811CC6CD3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481625BF-4566-DA47-991B-0F7270DC79DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12040" yWindow="6380" windowWidth="37660" windowHeight="20900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="107">
   <si>
     <t>Source Clinical Hub</t>
   </si>
@@ -364,9 +364,6 @@
   </si>
   <si>
     <t>YY480</t>
-  </si>
-  <si>
-    <t>4 - Lung</t>
   </si>
   <si>
     <t>19M9</t>
@@ -2029,7 +2026,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2455,7 +2452,7 @@
         <v>50</v>
       </c>
       <c r="H6" s="233" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="I6" s="233" t="s">
         <v>56</v>
@@ -2538,7 +2535,7 @@
         <v>50</v>
       </c>
       <c r="H7" s="233" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>94</v>
@@ -2780,14 +2777,14 @@
         <v>62</v>
       </c>
       <c r="E10" s="122" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F10" s="122"/>
       <c r="G10" s="233" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="H10" s="233" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>78</v>
@@ -2809,7 +2806,7 @@
         <v>43798</v>
       </c>
       <c r="O10" s="122" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P10" s="122"/>
       <c r="Q10" s="241">
@@ -2820,7 +2817,7 @@
         <v>No</v>
       </c>
       <c r="S10" s="122" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T10" s="32"/>
       <c r="U10" s="32"/>
